--- a/N2_workshop3.xlsx
+++ b/N2_workshop3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\kiemthucoban\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\N2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F6DD1C-2506-4171-9EEB-3D3053C4FAF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5297E5F1-5C9A-4375-B8B5-5E99DC513657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="20376" windowHeight="11460" activeTab="3" xr2:uid="{AFB43C53-D4D7-4E60-865B-94429BFB0A40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AFB43C53-D4D7-4E60-865B-94429BFB0A40}"/>
   </bookViews>
   <sheets>
     <sheet name="gam" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>MÔ TẢ TEST CASE</t>
+  </si>
+  <si>
+    <t>THỦ TỤC TEST</t>
+  </si>
+  <si>
+    <t>OUT PUT MONG MUÔN</t>
+  </si>
+  <si>
+    <t>OUT PUT THỰC TẾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YÊU CẦU </t>
+  </si>
+  <si>
+    <t>NGƯỜI TEST</t>
+  </si>
+  <si>
+    <t>THỜI GIAN TEST</t>
+  </si>
+  <si>
+    <t>CHÚ Ý</t>
+  </si>
+  <si>
+    <t>KẾT QUẢ</t>
+  </si>
+  <si>
+    <t>TT1</t>
+  </si>
+  <si>
+    <t>thuộc trang tin tức</t>
+  </si>
+  <si>
+    <t>TT2</t>
+  </si>
+  <si>
+    <t>TT3</t>
+  </si>
+  <si>
+    <t>TT4</t>
+  </si>
+  <si>
+    <t>thuộc trang địa chỉ</t>
+  </si>
+  <si>
+    <t>thuộc trang liên hệ</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>LH1</t>
+  </si>
+  <si>
+    <t>LH2</t>
+  </si>
+  <si>
+    <t>LH3</t>
+  </si>
+  <si>
+    <t>LH4</t>
+  </si>
+  <si>
+    <t>Image: size: 574 x 444</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>background: F5F6F7</t>
+  </si>
+  <si>
+    <t>DN1</t>
+  </si>
+  <si>
+    <t>thuộc trang đăng nhập</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,6 +125,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -64,9 +156,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,6 +180,1977 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5951643</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>800655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869E154D-50E0-4358-B381-4194B91B82BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="106680"/>
+          <a:ext cx="4884843" cy="6408975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAC9878-20BF-4AA9-A08F-AB4C0C90DD1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="899160"/>
+          <a:ext cx="838200" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2448697</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3065917</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>403036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270A7A39-0974-4A23-A179-7E72800D3C1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2448697" y="928198"/>
+          <a:ext cx="617220" cy="236838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1529355</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1261212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2779035</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>401182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5ECC1A-54DC-4890-8FF9-D224E3CE9C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1529355" y="3681077"/>
+          <a:ext cx="1249680" cy="797835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2776358</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>437017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5298578</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1054443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{307D4539-87F9-4180-B10B-0861704F9A17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2776358" y="2856882"/>
+          <a:ext cx="2522220" cy="617426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>340223</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>913988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1391783</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>458024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B68E6F-31C3-4A3F-89D3-3D4C91180F5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="340223" y="1675988"/>
+          <a:ext cx="1051560" cy="1201901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TT1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TT2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TT3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TT4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>648730</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1040027</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A1547A-CF4D-4C5B-A629-DDB73EB947AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="648730" y="1036320"/>
+          <a:ext cx="913370" cy="765707"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>679622</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>403036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2757307</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1225378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3AE8879-D6BC-4444-9A10-A347FBCC3C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="679622" y="1165036"/>
+          <a:ext cx="2077685" cy="822342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>679622</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1410730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2714574</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>900191</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFF2CC3-09FB-4D4A-9666-FBD6558C53E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="679622" y="2172730"/>
+          <a:ext cx="2034952" cy="1147326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>648730</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1524413</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780F3F56-B8AE-4D12-B4C7-1E739A1D4CDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="648730" y="2419865"/>
+          <a:ext cx="875683" cy="1673106"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30893</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2038865</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1623194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B088E274-5AC3-465A-B504-DEA06E859DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9803028" y="838200"/>
+          <a:ext cx="2007972" cy="1546994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20595</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10296</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1600200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD16F6CF-F5C5-47C8-B0A7-1E6037543341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9792730" y="2435105"/>
+          <a:ext cx="2059459" cy="1584960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30893</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2018270</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1615441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2E4D2C-F6D1-4DB8-B3B7-D3DDD233F5FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9803028" y="4077731"/>
+          <a:ext cx="1987377" cy="1615440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2019301</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1600200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047B2F22-071D-4B52-B375-EF06050B5B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9776461" y="5715000"/>
+          <a:ext cx="2019300" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>588201</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1740242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5890054</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4839729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07C7C8F-3C0A-469D-A497-B974BC20D102}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="588201" y="7444945"/>
+          <a:ext cx="5301853" cy="4860325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1266567</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1163595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4901513</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3017109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DFE0C25-5175-447C-96F5-38A6601FF69A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266567" y="8629136"/>
+          <a:ext cx="3634946" cy="1853514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5107459</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1771135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5704703</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2543432</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD79516-CA28-40A8-8788-9FA12837895F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5107459" y="9236676"/>
+          <a:ext cx="597244" cy="772297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TT5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4901513</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1915300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5179541</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2090352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6F63A0-FBB8-4EFB-B100-222A108D1A09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4901513" y="9380841"/>
+          <a:ext cx="278028" cy="175052"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41189</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>391297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2018270</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3490782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE038A5-90CE-4E56-91E3-7E9D27BD0B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9813324" y="7856838"/>
+          <a:ext cx="1977081" cy="3099485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>701267</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6611915</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2485159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FB2A66-9E86-4A6F-A2E9-2876610ED659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701267" y="12678127"/>
+          <a:ext cx="5910648" cy="5601214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1506682</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1489365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3255818</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2320636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E87579-F523-4405-9CEA-30804005725B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1506682" y="14157615"/>
+          <a:ext cx="1749136" cy="831271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1420091</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2363932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3342409</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>710046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F4797B-2BBC-4119-88D3-684002612B48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1420091" y="15032182"/>
+          <a:ext cx="1922318" cy="1472046"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>458932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1779399</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2699406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F11B2E2-8ED1-4A19-8515-0FF88566AC35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10061864" y="13127182"/>
+          <a:ext cx="1493649" cy="2240474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>398318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1402773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED66191D-6E78-49F6-8C85-24EE733E4A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8693726" y="16192500"/>
+          <a:ext cx="3160570" cy="1004455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4165023</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3004705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5455227</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>684068</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rectangle 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74B5CD8-23BE-4B20-957E-B72C9A1BA5B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165023" y="15672955"/>
+          <a:ext cx="1290204" cy="805295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LH1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LH2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LH3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LH4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3264477</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1818409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4139045</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3004705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E028FA50-1003-4945-B563-06DCE6B9AF84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3264477" y="14486659"/>
+          <a:ext cx="874568" cy="1186296"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3342409</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3099955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4260273</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E161E39-B0D4-4DD8-82F2-723079483674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3342409" y="15768205"/>
+          <a:ext cx="917864" cy="199159"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4468091</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2779568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5117523</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>346363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C502066-A28F-4AA4-8134-9DF03D2BF3C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4468091" y="15447818"/>
+          <a:ext cx="649432" cy="692727"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4476750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>458932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5749636</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>528204</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88349638-E5E6-4203-A811-16DA343C28DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4476750" y="16253114"/>
+          <a:ext cx="1272886" cy="69272"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>731646</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6614750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>21313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE95C46C-EF2D-428E-A989-040BF718DFFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="731646" y="18643023"/>
+          <a:ext cx="5883104" cy="5303358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1021773</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1151659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6225886</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rectangle 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF3043E-E502-4E6C-85BC-3CB8022A8B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1021773" y="19846636"/>
+          <a:ext cx="5204113" cy="2121478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2935432</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4294909</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7C4DEB-3BA5-4D47-A108-2F62541CEBCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2935432" y="22089341"/>
+          <a:ext cx="1359477" cy="753341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DN1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3299114</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3623830</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Arrow Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BE8B50-E144-49DD-B530-9FAB0E2C607C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3299114" y="21968114"/>
+          <a:ext cx="324716" cy="216477"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>701387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2034887</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2989645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB23121F-DB69-46CD-A7AA-455E0F4A2D36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8849591" y="19396364"/>
+          <a:ext cx="3082637" cy="2288258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,13 +2468,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9BDF1D-33AB-48E8-9E28-7BA49FB0CDC7}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="97.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="246" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="196.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -425,7 +2635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB706170-D9DC-4265-9C07-5D0153F85F3A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/N2_workshop3.xlsx
+++ b/N2_workshop3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\N2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\kì spring2021\SOF303 kiểm thử cơ bản\kiem_thu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5297E5F1-5C9A-4375-B8B5-5E99DC513657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AFB43C53-D4D7-4E60-865B-94429BFB0A40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="gam" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="đại" sheetId="3" r:id="rId3"/>
     <sheet name="hà" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -110,11 +109,95 @@
   <si>
     <t>thuộc trang đăng nhập</t>
   </si>
+  <si>
+    <t>thuộc trang đăng ký</t>
+  </si>
+  <si>
+    <t>DK1</t>
+  </si>
+  <si>
+    <t>DK2</t>
+  </si>
+  <si>
+    <t>DK3</t>
+  </si>
+  <si>
+    <t>DK4</t>
+  </si>
+  <si>
+    <t>DK5</t>
+  </si>
+  <si>
+    <t>thuộc trang đang ký</t>
+  </si>
+  <si>
+    <t>DK6</t>
+  </si>
+  <si>
+    <t>DK7</t>
+  </si>
+  <si>
+    <t>DK8</t>
+  </si>
+  <si>
+    <t>DK9</t>
+  </si>
+  <si>
+    <t>DK10</t>
+  </si>
+  <si>
+    <t>DK11</t>
+  </si>
+  <si>
+    <t>DK12</t>
+  </si>
+  <si>
+    <t>DK13</t>
+  </si>
+  <si>
+    <t>DK14</t>
+  </si>
+  <si>
+    <t>DK15</t>
+  </si>
+  <si>
+    <t>thuộc trang đaăng ký</t>
+  </si>
+  <si>
+    <t>Thuộc trang đăng nhập</t>
+  </si>
+  <si>
+    <t>DK16</t>
+  </si>
+  <si>
+    <t>DK17</t>
+  </si>
+  <si>
+    <t>CN1</t>
+  </si>
+  <si>
+    <t>thuộc trang cập nhật tài khoản</t>
+  </si>
+  <si>
+    <t>SPYT1</t>
+  </si>
+  <si>
+    <t>SPYT2</t>
+  </si>
+  <si>
+    <t>thuộc trang cập nhật</t>
+  </si>
+  <si>
+    <t>GT1</t>
+  </si>
+  <si>
+    <t>thuộc trang giới thiệu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -798,15 +881,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>30893</xdr:colOff>
+      <xdr:colOff>16461</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>68984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2038865</xdr:colOff>
+      <xdr:colOff>2024433</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1623194</xdr:rowOff>
+      <xdr:rowOff>1615978</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -835,7 +918,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9803028" y="838200"/>
+          <a:off x="10082654" y="826654"/>
           <a:ext cx="2007972" cy="1546994"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2148,6 +2231,5489 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAC9878-20BF-4AA9-A08F-AB4C0C90DD1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="891540"/>
+          <a:ext cx="838200" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2448697</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3065917</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>403036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270A7A39-0974-4A23-A179-7E72800D3C1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2448697" y="928198"/>
+          <a:ext cx="617220" cy="236838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1529355</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1261212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2779035</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>401182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5ECC1A-54DC-4890-8FF9-D224E3CE9C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1529355" y="3680562"/>
+          <a:ext cx="1249680" cy="790970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2776358</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>437017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5298578</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1054443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{307D4539-87F9-4180-B10B-0861704F9A17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2776358" y="2856367"/>
+          <a:ext cx="2522220" cy="617426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>340223</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>913988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1391783</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>584200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B68E6F-31C3-4A3F-89D3-3D4C91180F5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="340223" y="1675988"/>
+          <a:ext cx="1051560" cy="2978562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK11</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK14</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK15</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK16</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DK17</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1479550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1479550" y="438150"/>
+          <a:ext cx="5359400" cy="5394960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1492250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1492250" y="685800"/>
+          <a:ext cx="5327650" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>977900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="654050" y="1016000"/>
+          <a:ext cx="812800" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2498725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1130300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="622300" y="1181100"/>
+          <a:ext cx="1876425" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1949450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1949450" y="850900"/>
+          <a:ext cx="1098550" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4692650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="920750"/>
+          <a:ext cx="1644650" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3067050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4387850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>450850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="1092200"/>
+          <a:ext cx="1320800" cy="120650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4737100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5213350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4737100" y="882650"/>
+          <a:ext cx="476250" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5238750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5715000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="882650"/>
+          <a:ext cx="476250" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5702300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6210300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5702300" y="882650"/>
+          <a:ext cx="508000" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>558800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2882900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>768350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAC9878-20BF-4AA9-A08F-AB4C0C90DD1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="1320800"/>
+          <a:ext cx="768350" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3028950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>565150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3835400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>774700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAC9878-20BF-4AA9-A08F-AB4C0C90DD1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="1327150"/>
+          <a:ext cx="806450" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3870325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1371600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="685800" y="920750"/>
+          <a:ext cx="3184525" cy="1212850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>450850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3346450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1511300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="692150" y="1212850"/>
+          <a:ext cx="2654300" cy="1060450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4975225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="711200" y="1104900"/>
+          <a:ext cx="4264025" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5476875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="736600" y="1104900"/>
+          <a:ext cx="4740275" cy="1555750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5956300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Arrow Connector 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="654050" y="1085850"/>
+          <a:ext cx="5302250" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>787400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2393950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>565150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Arrow Connector 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="679450" y="1549400"/>
+          <a:ext cx="1714500" cy="1435100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>669925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3028950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="539750" y="1431925"/>
+          <a:ext cx="2489200" cy="1711325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2025650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1301750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6426200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>908050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rectangle 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2025650" y="2063750"/>
+          <a:ext cx="4400550" cy="1263650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>831850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3365500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1181100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rectangle 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2044700" y="1593850"/>
+          <a:ext cx="1320800" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2089150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>736600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2463800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectangle 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2089150" y="3155950"/>
+          <a:ext cx="374650" cy="158750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2520950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>742950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2825750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>901700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2520950" y="3162300"/>
+          <a:ext cx="304800" cy="158750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1390650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4076700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1543050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rectangle 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2108200" y="2152650"/>
+          <a:ext cx="1968500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1587500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2178050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>844550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Arrow Connector 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="730250" y="2349500"/>
+          <a:ext cx="1447800" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1473200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1485900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Rectangle 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1473200" y="3905250"/>
+          <a:ext cx="5378450" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1473200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>806450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Arrow Connector 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="774700" y="3752850"/>
+          <a:ext cx="698500" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1568450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6362700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1098550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rectangle 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="3987800"/>
+          <a:ext cx="4286250" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>939800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6343650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1054100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Rectangle 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="5010150"/>
+          <a:ext cx="4267200" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1485900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Arrow Connector 85"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="749300" y="3905250"/>
+          <a:ext cx="1327150" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>996950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="774700" y="4083050"/>
+          <a:ext cx="1301750" cy="984250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>815975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2089150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1035050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Arrow Connector 95"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="571500" y="3235325"/>
+          <a:ext cx="1517650" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>822325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2520950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1168400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="660400" y="3241675"/>
+          <a:ext cx="1860550" cy="346075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2038350" cy="599010"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="TextBox 109"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10077450" y="806450"/>
+          <a:ext cx="2038350" cy="599010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100"/>
+            <a:t>size:1519 x 160</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100"/>
+            <a:t>color:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FC8237</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="TextBox 110"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10090150" y="2425700"/>
+          <a:ext cx="2076450" cy="1651000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100"/>
+            <a:t>size:251 x 66 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1568450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="TextBox 113"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10128250" y="4178300"/>
+          <a:ext cx="2057400" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>size:458*315</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Rectangle 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="444500"/>
+          <a:ext cx="5346700" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1606550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="TextBox 121"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="5676900"/>
+          <a:ext cx="2012950" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>size:322 x35</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>color: FFFCFC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2089150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>679450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="TextBox 122"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="6178550"/>
+          <a:ext cx="2063750" cy="615950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>danh sách</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> yêu thích</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>size:125 x 40</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>color:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FFFCFC</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1784350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="TextBox 123"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10090150" y="6883400"/>
+          <a:ext cx="1765300" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>tài</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> khoản</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>size:125 x 40</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>color:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FFFCFC</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2101850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>660400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="TextBox 124"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10090150" y="7581900"/>
+          <a:ext cx="2082800" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>giỏ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> hàng</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>size:139.31 x44</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>color:FC8237</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2007972</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1546994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Picture 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B088E274-5AC3-465A-B504-DEA06E859DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10071100" y="8216900"/>
+          <a:ext cx="2007972" cy="1546994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2096747</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1663700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="Picture 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD16F6CF-F5C5-47C8-B0A7-1E6037543341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10071100" y="9810750"/>
+          <a:ext cx="2096747" cy="1663700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>469900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="TextBox 127"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10077450" y="11518900"/>
+          <a:ext cx="1384300" cy="463550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ô</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> input</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>size:458 x35</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="TextBox 128"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10083800" y="12045950"/>
+          <a:ext cx="2095500" cy="615950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>nút</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> đăng ký:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>size: 105 x 40 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>color: FFFFFF</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>787400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="TextBox 129"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10128250" y="12674600"/>
+          <a:ext cx="1987550" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>nút</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> đăng nhập</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>size:96 x40 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>color:000000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>673100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="TextBox 132"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="13442950"/>
+          <a:ext cx="2120900" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>footer:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>size:1519</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> x 709</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="TextBox 133"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10090150" y="14192250"/>
+          <a:ext cx="2114550" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>content:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>size:1170 x 239.34</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>774700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="TextBox 134"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="15017750"/>
+          <a:ext cx="2070100" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>chân</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> trang</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>size: 1170 x27.5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1006475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="Straight Arrow Connector 136"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="768350" y="1768475"/>
+          <a:ext cx="1276350" cy="2479675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2025650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="Straight Arrow Connector 138"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="736600" y="2695575"/>
+          <a:ext cx="1289050" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>749300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="TextBox 139"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="15728950"/>
+          <a:ext cx="2070100" cy="768350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>tIÊU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ĐỀ:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>size:400 x 87.62</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>color:000000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2051050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>692150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="TextBox 141"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115550" y="16611600"/>
+          <a:ext cx="2006600" cy="603250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Form</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>size:1170.5 x422</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6781800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="Picture 142"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="17379950"/>
+          <a:ext cx="5753100" cy="5196840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1096010</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="Rectangle 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B68E6F-31C3-4A3F-89D3-3D4C91180F5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44450" y="18141950"/>
+          <a:ext cx="1051560" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CN1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4184650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="Rectangle 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1397000" y="18522950"/>
+          <a:ext cx="2787650" cy="1816100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="Straight Arrow Connector 146"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="145" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="228600" y="17799050"/>
+          <a:ext cx="1168400" cy="1631950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="TextBox 147"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10490200" y="17354550"/>
+          <a:ext cx="2057400" cy="1765300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-Tiêu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> đề</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>color:000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>font: arial</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>text cập nhật tài khoản</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>font size:25px</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>text subtitle: font size: 18px</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>form</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>size: 1172 x422</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>ô input: size 55.7 x 40 px</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>nút cập nhật size: 105 x 40 px</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1098550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6807200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="Picture 148"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1098550" y="22764750"/>
+          <a:ext cx="5708650" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="Rectangle 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B68E6F-31C3-4A3F-89D3-3D4C91180F5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22999700"/>
+          <a:ext cx="1051560" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SPYT1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SPYT2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1073150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6756400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>838200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="Rectangle 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="24072850"/>
+          <a:ext cx="5594350" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="Straight Arrow Connector 152"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="151" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="425450" y="22218651"/>
+          <a:ext cx="736600" cy="2359024"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1917700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>965200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2876550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="Rectangle 153"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1917700" y="23964900"/>
+          <a:ext cx="958850" cy="927100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1917700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="Straight Arrow Connector 156"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="520700" y="23253700"/>
+          <a:ext cx="1397000" cy="1174750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="TextBox 157"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10490200" y="23088600"/>
+          <a:ext cx="1104900" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>container:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>size:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 1519 x450</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>tiêu đề:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>font-weight:bold</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>color:000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1562100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="TextBox 160"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10464800" y="24409400"/>
+          <a:ext cx="1079500" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> size:253.14 x304.75</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>title:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>color:000000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>description:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>color: orange</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2686050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6808470</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="Picture 161"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="27425650"/>
+          <a:ext cx="4122420" cy="6629400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3143250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>946150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6318250</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="Rectangle 162"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="28365450"/>
+          <a:ext cx="3175000" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2639060</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="Rectangle 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B68E6F-31C3-4A3F-89D3-3D4C91180F5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1587500" y="27470100"/>
+          <a:ext cx="1051560" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GT1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1187450</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="TextBox 164"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10464800" y="27463750"/>
+          <a:ext cx="1174750" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>content</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>size:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 1170 x1447</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>tiêu đề</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>color: orange</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>text-aline:left</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>font: arial</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>text:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>font-size: 18px</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1885950</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3143250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="Straight Arrow Connector 166"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="163" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1885950" y="27724100"/>
+          <a:ext cx="1257300" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1416050</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29210</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="168" name="Picture 167"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1416050" y="34410650"/>
+          <a:ext cx="5433060" cy="5943600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1394460</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="Rectangle 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8B68E6F-31C3-4A3F-89D3-3D4C91180F5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="34607500"/>
+          <a:ext cx="1051560" cy="3517900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GH1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2006600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>933450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6210300</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="Rectangle 169"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2006600" y="35528250"/>
+          <a:ext cx="4203700" cy="2222500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2006600</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="Straight Arrow Connector 171"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="170" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="666750" y="34766250"/>
+          <a:ext cx="1339850" cy="1873250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="TextBox 173"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7461250" y="34658300"/>
+          <a:ext cx="1790700" cy="1892300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+Container:1170px  * 619px</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-Line:1000px*0px</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-Nút thanh toán:228px *45px</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-Nút Tiếp tục mua hàng : 228px *45px</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-ô nhập số lượng:92px *39px</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2449,16 +8015,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A567CB-C13B-4B1B-B4C3-D8C0457B6337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2467,31 +8033,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9BDF1D-33AB-48E8-9E28-7BA49FB0CDC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A19" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="97.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="1"/>
+    <col min="3" max="3" width="21.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8.90625" style="1"/>
+    <col min="11" max="11" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2523,7 +8089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="130.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2531,7 +8097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="130.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2539,7 +8105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="128.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2547,7 +8113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="138.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2555,7 +8121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="409.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2563,7 +8129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="246" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="246" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2571,7 +8137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="196.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="196.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2579,7 +8145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2590,7 +8156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2601,7 +8167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="239.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2620,24 +8186,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30785635-1B41-4B98-870E-B05197689D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="97.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="1"/>
+    <col min="3" max="3" width="27.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" style="1"/>
+    <col min="11" max="11" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="128" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" ht="134" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="98" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="126" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" ht="153" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB706170-D9DC-4265-9C07-5D0153F85F3A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/N2_workshop3.xlsx
+++ b/N2_workshop3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="gam" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="448">
   <si>
     <t>ID</t>
   </si>
@@ -192,13 +192,1369 @@
   </si>
   <si>
     <t>thuộc trang giới thiệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mô tả Test Case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thủ tục Test </t>
+  </si>
+  <si>
+    <t>Output mong đợi</t>
+  </si>
+  <si>
+    <t>Output thực tế</t>
+  </si>
+  <si>
+    <t>Yêu cầu test case</t>
+  </si>
+  <si>
+    <t>Người test</t>
+  </si>
+  <si>
+    <t>Thời gian test</t>
+  </si>
+  <si>
+    <t>Chú ý</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>Web_Display_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiếm tra trang web hoạt động :
+-Khi vào trang web lần đầu tiên  
+</t>
+  </si>
+  <si>
+    <t>Điều kiện cần :
++ Trong DB, phải có sẵn sản phẩm để hiển thị 
++ Tên miền và máy chủ host hoạt động
+-Các bước:
+1.Vào trang web lần đầu tiên bằng kết quả tìm kiếm từ trình duyệt hoặc vào bằng đường link  "http://localhost/duan1_vandu/" hoặc "http://localhost/duan1_vandu/home"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Trang web hoạt động như và render ra chuẩn hình ảnh đã cung cấp </t>
+  </si>
+  <si>
+    <t>1.Trang web hoạt động đúng như mong đợi đề ra</t>
+  </si>
+  <si>
+    <t>Lê Chử Hữu Hà</t>
+  </si>
+  <si>
+    <t>9:24 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Web_Display_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra 24 link của trang chủ http://localhost/duan1_vandu/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điều kiện cần :
++ Thẻ link ko phải link chết
+Các bước : 
+1.Bấm vào từng đường link trong trang chủ(URL đã cho trong test case) 
+2.Kiểm tra xem link có đúng với tiêu đề đã cho hay không
+Ví dụ : Bấm vào link sản phẩm hải sản phải có sản phẩm hải sản chứ ko phải là sản phẩm rau củ
+</t>
+  </si>
+  <si>
+    <t>1.Các link hoạt động đúng với tên của chúng dc viết ra</t>
+  </si>
+  <si>
+    <t>1.Các link hoạt động tốt và chỉ đến đúng địa điểm đã định</t>
+  </si>
+  <si>
+    <t>9:25 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Web_Display_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra header và footer của trang web </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước :
+-Kiểm tra xem header và footer  của trang web  có hiển thị giống với mẫu đã đưa
+</t>
+  </si>
+  <si>
+    <t>1.Header và footer của trang web đồng nhất vs nhau và hiển thị giống vs thiết kế</t>
+  </si>
+  <si>
+    <t>1.Header và footer của tất cả các page đều giống nhau và như thiết kế</t>
+  </si>
+  <si>
+    <t>9:40 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Prop_List_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra danh sách bán chạy trong trang chủ
+</t>
+  </si>
+  <si>
+    <t>Điều kiện cần :
++ Trong DB, phải có sản phẩm được phân loại theo sản phẩm bán chạy</t>
+  </si>
+  <si>
+    <t>1.Danh sách sản phẩm bán chạy được hiển thị dưới banner</t>
+  </si>
+  <si>
+    <t>1.Danh sách sản phẩm bán chạy hiển thị dưới banner</t>
+  </si>
+  <si>
+    <t>9:26 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Do trong db sản phẩm ko có bảng relational nên ko tính dc chính xác có bao nhiêu sản phẩm trong 1 dach mục</t>
+  </si>
+  <si>
+    <t>Prop_List_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra danh sách bán đồ khô trong trang chủ
+</t>
+  </si>
+  <si>
+    <t>Điều kiện cần :
++ Trong DB, phải có sản phẩm được phân loại theo sản phẩm đồ khô</t>
+  </si>
+  <si>
+    <t>1.Danh sách sản phẩm bán đồ khô được hiển thị dưới danh sách sản phẩm bán chạy</t>
+  </si>
+  <si>
+    <t>9:27 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Prop_List_03</t>
+  </si>
+  <si>
+    <t>Kiểm tra danh sách bán rau quả</t>
+  </si>
+  <si>
+    <t>Điều kiện cần :
++ Trong DB, phải có sản phẩm được phân loại theo sản phẩm bán hoa quả</t>
+  </si>
+  <si>
+    <t>1.Danh sách sản phẩm bán rau quả được hiển thị dưới danh sách sản phẩm bán đồ khô</t>
+  </si>
+  <si>
+    <t>9:28 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Prop_Detail_01</t>
+  </si>
+  <si>
+    <t>Kiểm tra chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Điều kiện cần:
++Chi tiết sản phẩm có trong db
+Các bước: 
+1.Ấn vào một sản phẩm bất kỳ</t>
+  </si>
+  <si>
+    <t>1.Chi tiết sản phẩm được hiển thị đúng với trong DB</t>
+  </si>
+  <si>
+    <t>10.12 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Prop_Comments_Detail_01</t>
+  </si>
+  <si>
+    <t>Kiểm tra comment của sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điều kiện cần :
++Có bảng comment trong db
+Các bước:
+1.Vào sản phẩm bất kỳ 
+2.Đăng 1 bình luận </t>
+  </si>
+  <si>
+    <t>1.Comment hiện đúng với sản phẩm đã đăng
+2.Comment của chính chủ</t>
+  </si>
+  <si>
+    <t>1.Comment nếu thay đổi trong html thì đăng ko đúng với tên người dùng đăng nhập</t>
+  </si>
+  <si>
+    <t>Cần đăng nhập</t>
+  </si>
+  <si>
+    <t>10.13 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Kẻ tấn công chỉ cần tạo tài khoản và điều chỉnh trường user_id và product_id trong html là có thể giả dạng bất kỳ ai và comment trên bất cứ sản phẩm nào</t>
+  </si>
+  <si>
+    <t>Không đạt</t>
+  </si>
+  <si>
+    <t>Prop_List_04</t>
+  </si>
+  <si>
+    <t>Kiểm tra danh sách bán thịt đông lạnh</t>
+  </si>
+  <si>
+    <t>Điều kiện cần :
++ Trong DB, phải có sản phẩm được phân loại theo sản phẩm bán thịt đông lạnh</t>
+  </si>
+  <si>
+    <t>1.Danh sách sản phẩm bán thịt đông lạnh được hiển thị dưới danh sách sản phẩm bán rau quả</t>
+  </si>
+  <si>
+    <t>9:29 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Cate_List_01</t>
+  </si>
+  <si>
+    <t>Kiểm tra danh sách danh mục trong trang chủ</t>
+  </si>
+  <si>
+    <t>Điều kiện cần :
++ Trong db, phải có bảng danh mục và có dữ liệu
+-Các bước: 
+Kiểm tra xem danh mục có được hiển thị đầy đủ ra ngoài dựa theo danh mục trong db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Danh sách danh mục hiển thị đầy đủ </t>
+  </si>
+  <si>
+    <t>9:30 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Cate_Display_List_01</t>
+  </si>
+  <si>
+    <t>Kiểm tra sản phẩm được hiển thị theo danh mục RAU CỦ</t>
+  </si>
+  <si>
+    <t>Điều kiện cần : 
++ Tất cả sản phẩm trong db cần có id của danh mục
+-Các bước:
+1.Ấn vào một đường link danh mục trong trang chủ bất kỳ
+2.Kiểm tra xem các sản phẩm có đúng với danh mục đã cho ko</t>
+  </si>
+  <si>
+    <t>1.Các sản phẩm hiển thị theo danh mục đã định trong db</t>
+  </si>
+  <si>
+    <t>9:31 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Cate_Display_List_02</t>
+  </si>
+  <si>
+    <t>Kiểm tra sản phẩm được hiển thị theo danh mục HẢI SẢN</t>
+  </si>
+  <si>
+    <t>9:33 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Cate_Display_List_03</t>
+  </si>
+  <si>
+    <t>Kiểm tra sản phẩm được hiển thị theo danh mục HOA QUẢ TRONG NƯỚC</t>
+  </si>
+  <si>
+    <t>9:35 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Cate_Display_List_04</t>
+  </si>
+  <si>
+    <t>Kiểm tra sản phẩm được hiển thị theo danh mục HOA QUẢ SẤY</t>
+  </si>
+  <si>
+    <t>9:37 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Cate_Display_List_05</t>
+  </si>
+  <si>
+    <t>Kiểm tra sản phẩm được hiển thị theo danh mục THỊT CÁC LOẠI</t>
+  </si>
+  <si>
+    <t>Search_Display_Prop_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra tính năng tìm kiếm sản phẩm trên thanh tìm kiếm của header trang web </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
+1.Ấn vào một ký tự bất kỳ 
+2.Nếu ký tự có trong bất kỳ tên của sản phẩm nào thì sẽ hiển thị danh sách các sản phẩm có ký tự đấy
+3.Nếu ko có sẽ hiển thị trang ko tìm thấy (404)
+</t>
+  </si>
+  <si>
+    <t>1.Các sản phẩm được hiển thị theo đúng với giá trị đã điền vào trong search</t>
+  </si>
+  <si>
+    <t>9:42 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đặc biệt chú ý search field ko hề có validate đối với sql injection.
+Tôi chỉ cần điền 'or'1'='1 là có tất cả sản phẩm có nghĩa là những kẻ tấn công có thể sử dụng các cách tinh vi hơn để xóa toàn bộ bảng trong DB mà ko cần đăng nhập hay bất cứ quyền j</t>
+  </si>
+  <si>
+    <t>Check_Order_Cart_01</t>
+  </si>
+  <si>
+    <t>Kiểm tra đơn hàng đã order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điều kiện cần:
+1.Phải có sản phẩm trong giỏ hàng
+-Các bước:
+1.Thêm sản phẩm vào giỏ hàng bằng nút thêm giỏ hàng
+2.Vào giỏ hàng 
+3.Bấm thanh toán và để lại thông tin thanh toán
+</t>
+  </si>
+  <si>
+    <t>1.Thanh toán thành công và được chuyển đến trang thanh toán thành công và xuất hóa đơn</t>
+  </si>
+  <si>
+    <t>1.Thanh toán ko thành công</t>
+  </si>
+  <si>
+    <t>1.Cần đăng nhập 
+Ko có tk thì đăng ký</t>
+  </si>
+  <si>
+    <t>10.0 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Thanh toán không thành công do lỗi trong db và câu lệnh</t>
+  </si>
+  <si>
+    <t>Footer_SendMail_01</t>
+  </si>
+  <si>
+    <t>Gửi mail để nhận thông báo mới nhất</t>
+  </si>
+  <si>
+    <t>Các bước:
++Điền mail vào form dưới cùng của trang web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Mail dc gửi về tài khoản đã điền </t>
+  </si>
+  <si>
+    <t>1.Mail chưa được gửi về tài khoản</t>
+  </si>
+  <si>
+    <t>10.1 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Header_BestSell_01</t>
+  </si>
+  <si>
+    <t>Kiểm tra sản phẩm được bán chạy nhất</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước :
++Ấn vào Đường link bán chạy nhất trên đầu trang chủ
+</t>
+  </si>
+  <si>
+    <t>1.Sản phẩm được sắp xếp theo bán chạy nhất</t>
+  </si>
+  <si>
+    <t>1.Ko rõ là bán chạy nhất hay không vì ko có thông số j trên sản phẩm</t>
+  </si>
+  <si>
+    <t>10.2 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Header_News_01</t>
+  </si>
+  <si>
+    <t>Kiểm tra trang tin tức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước :
++Ấn vào Đường link tin tức  trên đầu trang chủ
+</t>
+  </si>
+  <si>
+    <t>1.Tin tức về minimart và các thứ khác được hiển thị</t>
+  </si>
+  <si>
+    <t>10.3 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>Chưa validate input</t>
+  </si>
+  <si>
+    <t>Header_Sale_01</t>
+  </si>
+  <si>
+    <t>Kiểm tra sản phẩm giảm giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước :
++Ấn vào Đường link giảm giá  trên đầu trang chủ
+</t>
+  </si>
+  <si>
+    <t>1.Các sản phẩm được giảm giá được hiển thị</t>
+  </si>
+  <si>
+    <t>10.4 Chủ nhật 21/03/2021</t>
+  </si>
+  <si>
+    <t>User_Register_01</t>
+  </si>
+  <si>
+    <t>Khách đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>Các bước : 
++ Bấm vào link Đăng ký trên header trang web
++ Điền tên,email,mật khẩu,xác nhận mật khẩu
++ Bấm nút đăng ký để đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>1.Tài khoản dc đăng ký thành công 
+và người dùng được sử dụng một số chức năng 
+của hệ thống</t>
+  </si>
+  <si>
+    <t>1.Điền đầy đủ thông tin thì tài khoản sẽ được đăng ký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Email ko được trùng
+2.Email đúng định dạng
+3.Các form chống SQL injection
+4.Mật khẩu được mã hóa
+</t>
+  </si>
+  <si>
+    <t>9.51 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>1.Email vẫn được trùng
+2.Tên người dùng vẫn có thể trùng
+3.Chưa chống sql inject và có thể bị kẻ xấu chèn script vào để phá hoại web
+4.Mật khẩu ko được mã hóa sẽ dễ dàng bị đoán và đánh cắp</t>
+  </si>
+  <si>
+    <t>User_Register_02</t>
+  </si>
+  <si>
+    <t>Khách đăng ký tài khoản nhưng thiếu tên</t>
+  </si>
+  <si>
+    <t>Các bước : 
++ Bấm vào link Đăng ký trên header trang web
++ Điền email,mật khẩu,xác nhận mật khẩu
++ Bấm nút đăng ký để đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>1.Tài khoản ko được đăng ký thành công 
+2. Hiển thị thông báo thiếu tên</t>
+  </si>
+  <si>
+    <t>9.31 Thứ 4 31/3/2021</t>
+  </si>
+  <si>
+    <t>User_Register_03</t>
+  </si>
+  <si>
+    <t>Khách đăng ký tài khoản nhưng thiếu email</t>
+  </si>
+  <si>
+    <t>1.Tài khoản ko được đăng ký thành công 
+2. Hiển thị thông báo thiếu email</t>
+  </si>
+  <si>
+    <t>9.52 Thứ 4 31/3/2021</t>
+  </si>
+  <si>
+    <t>User_Register_04</t>
+  </si>
+  <si>
+    <t>Khách đăng ký tài khoản nhưng thiếu mật khẩu</t>
+  </si>
+  <si>
+    <t>Các bước : 
++ Bấm vào link Đăng ký trên header trang web
++ Điền tên,email,xác nhận mật khẩu
++ Bấm nút đăng ký để đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>1.Tài khoản ko được đăng ký thành công 
+2. Hiển thị thông báo thiếu mật khẩu</t>
+  </si>
+  <si>
+    <t>9.53 Thứ 4 31/3/2021</t>
+  </si>
+  <si>
+    <t>User_Register_05</t>
+  </si>
+  <si>
+    <t>Khách đăng ký tài khoản nhưng thiếu xác nhận mật khẩu</t>
+  </si>
+  <si>
+    <t>Các bước : 
++ Bấm vào link Đăng ký trên header trang web
++ Điền tên,email,mật khẩu
++ Bấm nút đăng ký để đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>1.Tài khoản ko được đăng ký thành công 
+2. Hiển thị thông báo thiếu xác nhận mật khẩu</t>
+  </si>
+  <si>
+    <t>9.55 Thứ 4 31/3/2021</t>
+  </si>
+  <si>
+    <t>User_Register_06</t>
+  </si>
+  <si>
+    <t>Khách đăng ký tài khoản nhưng nhập mật khẩu ít hơn 6 ký tự hoặc nhiều hơn 10 ký tự hoặc có ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Các bước : 
++ Bấm vào link Đăng ký trên header trang web
++ Điền tên,email,mật khẩu,xác nhận mật khẩu
++ Phần mật khẩu điền ít hơn 6 ký tự hoặc nhiều hơn 10 ký tự hoặc có một ký tự đặc biệt(@)
++ Bấm nút đăng ký để đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Tài khoản ko được đăng ký thành công 
+2. Hiển thị thông báo nếu ít hơn 6 ký tự hoặc nhiều hơn 10 thì đều thông báo Nhap mật khẩu chứa tối đa 10 ký tự, 
+3. Hiện thị thông báo nếu mật khẩu chứa ký tự đặc biệt </t>
+  </si>
+  <si>
+    <t>9.59 Thứ 4 31/3/2021</t>
+  </si>
+  <si>
+    <t>User_Register_07</t>
+  </si>
+  <si>
+    <t>Khách đăng ký tài khoản nhưng nhập sai định dạng email</t>
+  </si>
+  <si>
+    <t>Các bước : 
++ Bấm vào link Đăng ký trên header trang web
++ Điền tên,email,mật khẩu,xác nhận mật khẩu
++ Phần email nhập sai định dạng email : lol 
++ Bấm nút đăng ký để đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>1.Tài khoản ko được đăng ký thành công 
+2. Hiển thị thông báo email sai định dạng</t>
+  </si>
+  <si>
+    <t>10.01 Thứ 4 31/3/2021</t>
+  </si>
+  <si>
+    <t>User_Login_01</t>
+  </si>
+  <si>
+    <t>Khách đăng nhập với tài khoản đã đăng ký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước : 
++ Bấm vào link đăng nhập trên header trang web
++ Điền email và mật khẩu đã đăng ký để đăng nhập
+</t>
+  </si>
+  <si>
+    <t>1.Người dùng đăng nhập thành công 
+và được sử dụng 1 số chức năng của hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Email đúng định dạng
+2.Mật khẩu giống với mật khẩu trong db
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.11 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Login_02</t>
+  </si>
+  <si>
+    <t>Khách đăng nhập với tài khoản đã đăng ký nhưng nhập thiếu email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước : 
++ Bấm vào link đăng nhập trên header trang web
++ Điền  mật khẩu đã đăng ký để đăng nhập
+</t>
+  </si>
+  <si>
+    <t>1.Người dùng đăng nhập ko thành công 
+2. Hiển thị thông báo Tên đăng nhập thiếu</t>
+  </si>
+  <si>
+    <t>1.Người dùng đăng nhập ko thành công 
+2. Hiển thị thông báo Tên đăng nhập hoặc mật khẩu sai!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.04 Thứ 4 31/3/2021</t>
+  </si>
+  <si>
+    <t>User_Login_03</t>
+  </si>
+  <si>
+    <t>Khách đăng nhập với tài khoản đã đăng ký nhưng nhập thiếu mật khẩu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước : 
++ Bấm vào link đăng nhập trên header trang web
++ Điền  email đã đăng ký để đăng nhập
+</t>
+  </si>
+  <si>
+    <t>1.Người dùng đăng nhập ko thành công 
+2. Hiển thị thông báo mật khẩu thiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.05 Thứ 4 31/3/2021</t>
+  </si>
+  <si>
+    <t>User_Login_04</t>
+  </si>
+  <si>
+    <t>Khách đăng nhập với tài khoản đã đăng ký nhưng nhập sai định dạng email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước : 
++ Bấm vào link đăng nhập trên header trang web
++ Điền email sai định dạng và bỏ input="email" trong form input để check
++ Điền  email và mật khẩu đã đăng ký để đăng nhập
+</t>
+  </si>
+  <si>
+    <t>1.Người dùng đăng nhập ko thành công 
+2. Hiển thị thông báo email sai định dạng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.07 Thứ 4 31/3/2021</t>
+  </si>
+  <si>
+    <t>1.Khi điền form sai thì chỉ trả về duy nhất một lỗi đó là Tên đăng nhập hoặc mật khẩu sai! Làm người dùng sẽ khó biết dc tại sao mình lại sai</t>
+  </si>
+  <si>
+    <t>User_Comment_Prop_01</t>
+  </si>
+  <si>
+    <t>Người dùng bình luận về sản phẩm bất kỳ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Bấm vào một sản phẩm bất kỳ
++ Bình luận : Test </t>
+  </si>
+  <si>
+    <t>1.Bình luận được đăng thành công và hiện ra dưới sản phẩm</t>
+  </si>
+  <si>
+    <t>1.Bình luận hiện ra dưới sản phẩm đã đăng và với tên người dùng</t>
+  </si>
+  <si>
+    <t>1.Người dùng cần 
+đăng nhập để comment</t>
+  </si>
+  <si>
+    <t>10.15 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>1.Tên người comment có thể bị giả vào 
+2.Comment có thể bị điền script làm việc xấu
+3.</t>
+  </si>
+  <si>
+    <t>User_Add_Cart_01</t>
+  </si>
+  <si>
+    <t>Người dùng thêm  sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Các bước:
++Có thể thêm bằng cách ấn nút thêm vào giỏ hàng ở chỉ tiết sản phẩm hoặc 
+sản phẩm  tóm tắt 
++Có thể điều chỉnh số lượng sản phẩm trong chi tiết sản phẩm trước khi thêm
+vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>1.Sản phẩm được thêm vào giỏ hàng với số lượng đã chỉ định</t>
+  </si>
+  <si>
+    <t>10.20 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>1.Số lượng ở chi tiết sản phẩm có thể bị chèn script và gửi vào db</t>
+  </si>
+  <si>
+    <t>User_Pay_01</t>
+  </si>
+  <si>
+    <t>Người dùng mua sản phẩm</t>
+  </si>
+  <si>
+    <t>Các bước :
++ Ấn vào giỏ hàng trên header trang chủ
++Nhấn nút thanh toán
++Điền thông tin cụ thể để nhận hóa đơn thanh toán</t>
+  </si>
+  <si>
+    <t>1.Sản phẩm được đưa vào hóa đơn và thanh toán thành công</t>
+  </si>
+  <si>
+    <t>10.25 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>1.Thanh toán không thành công vì bảng trong db thiếu một cột do đó đẫn đến lỗi</t>
+  </si>
+  <si>
+    <t>User_Manage_HomePage</t>
+  </si>
+  <si>
+    <t>Người dùng quản lý các bảng trong db:
++Categories
++Suppliers
++News
++Images</t>
+  </si>
+  <si>
+    <t>Điều kiện:
++Các bảng cần có dữ liệu
+Các bước:
++Đăng nhập bằng tài khoản quản trị 
++Bấm vào đường link admin trên header trang web để vào trang quản trị</t>
+  </si>
+  <si>
+    <t>1.Trang quản trị hiện thị thành công và 
+dữ liệu của các bảng được hiển thị đầy đủ</t>
+  </si>
+  <si>
+    <t>1.Người dùng cần tài khoản quản trị</t>
+  </si>
+  <si>
+    <t>9.42 Thứ 4 31/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Categories_01</t>
+  </si>
+  <si>
+    <t>Người dùng quản lý danh mục</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Bấm vào link với tên categories </t>
+  </si>
+  <si>
+    <t>1.Trang danh mục hiện thị thành công và dữ liệu các danh mục hiện thị
+ đầy đủ</t>
+  </si>
+  <si>
+    <t>10.45 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Categories_Add</t>
+  </si>
+  <si>
+    <t>Người dùng thêm danh mục</t>
+  </si>
+  <si>
+    <t>Các bước : 
++Ấn vào nút thêm loại hàng
++Điền đầy đủ tên danh mục và ảnh và ngày thêm</t>
+  </si>
+  <si>
+    <t>1. Thêm thành công danh mục vào table và hiển thị ra ngoài</t>
+  </si>
+  <si>
+    <t>1. Không thành công</t>
+  </si>
+  <si>
+    <t>10.48 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>1.Thêm không thành công vì validate lỗi khiến thêm tên danh mục ko thành
+2.Tên danh mục bị lắp 2 lần trang input form</t>
+  </si>
+  <si>
+    <t>User_Manage_Categories_Update</t>
+  </si>
+  <si>
+    <t>Người dùng chỉnh sửa danh mục</t>
+  </si>
+  <si>
+    <t>Các bước:
++Ấn vào nút sửa của sản phẩm muốn sửa
++Điền vào một trong 3 input để kiểm tra xem có chỉnh sửa thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Chỉnh sửa thành công danh mục </t>
+  </si>
+  <si>
+    <t>10.52 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>1.Ảnh chưa validate</t>
+  </si>
+  <si>
+    <t>User_Manage_Categories_Delete</t>
+  </si>
+  <si>
+    <t>Người dùng xóa danh mục</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Ấn vào nút xóa sản phẩm muốn xóa
+</t>
+  </si>
+  <si>
+    <t>1.Xóa thành công danh mục</t>
+  </si>
+  <si>
+    <t>10.54 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Suppliers_01</t>
+  </si>
+  <si>
+    <t>Người dùng quản lý nhà cung cấp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Bấm vào link với tên Suppliers </t>
+  </si>
+  <si>
+    <t>1.Trang nhà cung cấp hiện thị thành công và dữ liệu các nhà cung cấp hiện thị
+ đầy đủ</t>
+  </si>
+  <si>
+    <t>10.58 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Suppliers_Add</t>
+  </si>
+  <si>
+    <t>Người dùng thêm nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Các bước:
++Ấn vào nút thêm nhà cung cấp
++Điền đầy đủ tên và ảnh và giới thiệu</t>
+  </si>
+  <si>
+    <t>1. Thêm thành công nhà cung cấp vào table và hiển thị ra ngoài</t>
+  </si>
+  <si>
+    <t>11.01 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>1.Ảnh chưa validate và có thể bị đưa virus vào trong db và thực hiện các yêu cầu của kẻ tấn công
+2.Các field chưa validate</t>
+  </si>
+  <si>
+    <t>User_Manage_Suppliers_Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người dùng chỉnh sửa nhà cung cấp </t>
+  </si>
+  <si>
+    <t>1.Chỉnh sửa thành công nhà cung cấp</t>
+  </si>
+  <si>
+    <t>11.04 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Suppliers_Delete</t>
+  </si>
+  <si>
+    <t>1.Xóa thành công nhà cung cấp</t>
+  </si>
+  <si>
+    <t>11.05 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Images_01</t>
+  </si>
+  <si>
+    <t>Người dùng quản lý ảnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Bấm vào link với tên images </t>
+  </si>
+  <si>
+    <t>1.Trang quản lý ảnh hiện thị thành công và dữ liệu các ảnh hiện thị
+ đầy đủ</t>
+  </si>
+  <si>
+    <t>11.08 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Images_Add</t>
+  </si>
+  <si>
+    <t>Người dùng thêm ảnh</t>
+  </si>
+  <si>
+    <t>Các bước : 
++Ấn vào nút thêm ảnh
++Điền đầy đủ tên  và ảnh và ngày thêm</t>
+  </si>
+  <si>
+    <t>1. Thêm thành công ảnh vào table và hiển thị ra ngoài</t>
+  </si>
+  <si>
+    <t>User_Manage_Images_Update</t>
+  </si>
+  <si>
+    <t>Người dùng chỉnh sửa ảnh</t>
+  </si>
+  <si>
+    <t>1.Chỉnh sửa thành công ảnh</t>
+  </si>
+  <si>
+    <t>11.11 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Images_Delete</t>
+  </si>
+  <si>
+    <t>Người dùng chỉnh xóa ảnh</t>
+  </si>
+  <si>
+    <t>1.Xóa thành công ảnh</t>
+  </si>
+  <si>
+    <t>11.13 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Products_01</t>
+  </si>
+  <si>
+    <t>Người dùng quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Bấm vào link với tên Products </t>
+  </si>
+  <si>
+    <t>1.Trang quản lý sản phẩm hiện thị thành công và dữ liệu các ảnh hiện thị
+ đầy đủ</t>
+  </si>
+  <si>
+    <t>11.19 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Products_Add</t>
+  </si>
+  <si>
+    <t>Người dùng thêm sản phẩm</t>
+  </si>
+  <si>
+    <t>Các bước : 
++Ấn vào nút thêm Products
++Điền đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>1. Thêm thành công sản phẩm vào table và hiển thị ra ngoài</t>
+  </si>
+  <si>
+    <t>User_Manage_Products_Update</t>
+  </si>
+  <si>
+    <t>Người dùng chỉnh sửa sản phẩm</t>
+  </si>
+  <si>
+    <t>Các bước:
++Ấn vào nút sửa của sản phẩm muốn sửa
++Điền vào một trong các input để kiểm tra xem có chỉnh sửa thành công</t>
+  </si>
+  <si>
+    <t>1.Chỉnh sửa thành công sản phẩm</t>
+  </si>
+  <si>
+    <t>User_Manage_Products_Delete</t>
+  </si>
+  <si>
+    <t>Người dùng chỉnh xóa sản phẩm</t>
+  </si>
+  <si>
+    <t>1.Xóa thành công sản phẩm</t>
+  </si>
+  <si>
+    <t>User_Manage_InfoShop_01</t>
+  </si>
+  <si>
+    <t>Người dùng quản lý thông tin shop</t>
+  </si>
+  <si>
+    <t>11.20 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>Người dùng thêm shop (ko cho phép)</t>
+  </si>
+  <si>
+    <t>Người dùng chỉnh sửa thông tin shop</t>
+  </si>
+  <si>
+    <t>Người dùng chỉnh xóa sản phẩm(ko cho phép)</t>
+  </si>
+  <si>
+    <t>User_Manage_Contact_01</t>
+  </si>
+  <si>
+    <t>Người dùng quản lý liên hệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Bấm vào link với tên Contact </t>
+  </si>
+  <si>
+    <t>User_Manage_Contact_Add</t>
+  </si>
+  <si>
+    <t>Người dùng thêm sản phẩm(ko co phép)</t>
+  </si>
+  <si>
+    <t>User_Manage_Contact_Check</t>
+  </si>
+  <si>
+    <t>Người dùng kiểm tra thư</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Ấn vào nút Mở thư của sản phẩm muốn xem
+</t>
+  </si>
+  <si>
+    <t>1.Xem thành công thư</t>
+  </si>
+  <si>
+    <t>11.27 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Contact_Delete</t>
+  </si>
+  <si>
+    <t>1.Xóa thành công thư</t>
+  </si>
+  <si>
+    <t>11.28 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Comments_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người dùng quản lý comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Bấm vào link với tên Comments </t>
+  </si>
+  <si>
+    <t>1.Trang quản lý comments hiện thị thành công và dữ liệu các ảnh hiện thị
+ đầy đủ</t>
+  </si>
+  <si>
+    <t>11.30 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Comments_Check</t>
+  </si>
+  <si>
+    <t>Người dùng xem chi tiết comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Bấm vào link với tên Chi tiết </t>
+  </si>
+  <si>
+    <t>1.Trang quản lý comments chi tiết hiện thị thành công và dữ liệu các ảnh hiện thị đầy đủ</t>
+  </si>
+  <si>
+    <t>11.31 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Comments_Delete</t>
+  </si>
+  <si>
+    <t>Người dùng xóa comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Xóa bình luận bằng nút xóa </t>
+  </si>
+  <si>
+    <t>1.Xóa thành công bình luận</t>
+  </si>
+  <si>
+    <t>11.33 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Users_01</t>
+  </si>
+  <si>
+    <t>Người dùng quản lý người dùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Bấm vào link với tên Users </t>
+  </si>
+  <si>
+    <t>1.Trang quản lý người dùng hiện thị thành công và dữ liệu các ảnh hiện thị
+ đầy đủ</t>
+  </si>
+  <si>
+    <t>11.38 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Users_Add</t>
+  </si>
+  <si>
+    <t>Người dùng thêm người dùng</t>
+  </si>
+  <si>
+    <t>Các bước : 
++Ấn vào nút thêm User
++Điền đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>1.Thêm user thành công</t>
+  </si>
+  <si>
+    <t>11.39 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Users_Update</t>
+  </si>
+  <si>
+    <t>Người dùng chỉnh sửa người dùng</t>
+  </si>
+  <si>
+    <t>Các bước:
++Ấn vào nút sửa của user muốn sửa
++Điền vào một trong các input để kiểm tra xem có chỉnh sửa thành công</t>
+  </si>
+  <si>
+    <t>1.Chỉnh sửa người dùng thành công</t>
+  </si>
+  <si>
+    <t>11.41 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Users_Delete</t>
+  </si>
+  <si>
+    <t>Người dùng chỉnh xóa người dùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Ấn vào nút xóa người dùng muốn xóa
+</t>
+  </si>
+  <si>
+    <t>1.Xóa người dùng thành công</t>
+  </si>
+  <si>
+    <t>11.43 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Orders_01</t>
+  </si>
+  <si>
+    <t>Người dùng quản lý đơn hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Bấm vào link với tên Orders </t>
+  </si>
+  <si>
+    <t>1.Trang quản lý đơn hàng hiện thị thành công và dữ liệu các ảnh hiện thị
+ đầy đủ</t>
+  </si>
+  <si>
+    <t>9.44 Thứ 4 31/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Orders_Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người dùng thêm đơn hàng(ko được phép) </t>
+  </si>
+  <si>
+    <t>User_Manage_Orders_Update</t>
+  </si>
+  <si>
+    <t>Người dùng chỉnh sửa đơn hàng</t>
+  </si>
+  <si>
+    <t>Các bước:
++Ấn vào nút sửa của đơn hàng muốn sửa
++Điền vào một trong các input để kiểm tra xem có chỉnh sửa thành công</t>
+  </si>
+  <si>
+    <t>1.Chỉnh sửa đơn hàng thành công</t>
+  </si>
+  <si>
+    <t>11.50 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>User_Manage_Orders_Delete</t>
+  </si>
+  <si>
+    <t>Người dùng chỉnh xóa đơn hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Các bước:
++Ấn vào nút xóa đơn hàng muốn xóa
+</t>
+  </si>
+  <si>
+    <t>1.Xóa đơn hàng thành công</t>
+  </si>
+  <si>
+    <t>11.51 Thứ 4 24/3/2021</t>
+  </si>
+  <si>
+    <t>Các chuỗi sql injection sẽ điền vào login form và register form và search form và email sender form</t>
+  </si>
+  <si>
+    <t>-'</t>
+  </si>
+  <si>
+    <t>' '</t>
+  </si>
+  <si>
+    <t>'&amp;'</t>
+  </si>
+  <si>
+    <t>'^'</t>
+  </si>
+  <si>
+    <t>'*'</t>
+  </si>
+  <si>
+    <t>' or ''-'</t>
+  </si>
+  <si>
+    <t>' or '' '</t>
+  </si>
+  <si>
+    <t>' or ''&amp;'</t>
+  </si>
+  <si>
+    <t>' or ''^'</t>
+  </si>
+  <si>
+    <t>' or ''*'</t>
+  </si>
+  <si>
+    <t>"-"</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>"&amp;"</t>
+  </si>
+  <si>
+    <t>"^"</t>
+  </si>
+  <si>
+    <t>"*"</t>
+  </si>
+  <si>
+    <t>" or ""-"</t>
+  </si>
+  <si>
+    <t>" or "" "</t>
+  </si>
+  <si>
+    <t>" or ""&amp;"</t>
+  </si>
+  <si>
+    <t>" or ""^"</t>
+  </si>
+  <si>
+    <t>" or ""*"</t>
+  </si>
+  <si>
+    <t>or true--</t>
+  </si>
+  <si>
+    <t>" or true--</t>
+  </si>
+  <si>
+    <t>' or true--</t>
+  </si>
+  <si>
+    <t>") or true--</t>
+  </si>
+  <si>
+    <t>') or true--</t>
+  </si>
+  <si>
+    <t>' or 'x'='x</t>
+  </si>
+  <si>
+    <t>') or ('x')=('x</t>
+  </si>
+  <si>
+    <t>')) or (('x'))=(('x</t>
+  </si>
+  <si>
+    <t>" or "x"="x</t>
+  </si>
+  <si>
+    <t>") or ("x")=("x</t>
+  </si>
+  <si>
+    <t>")) or (("x"))=(("x</t>
+  </si>
+  <si>
+    <t>Script test khi inject vào trong comment form</t>
+  </si>
+  <si>
+    <t>function myFunction() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  alert("Hello! I am an alert box!");</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Xây một crawler bằng php để ăn cắp nội dung trang</t>
+  </si>
+  <si>
+    <t>Đã có 3 crawler</t>
+  </si>
+  <si>
+    <t>Ddos trang web bằng một lệnh ping đơn giản với mỗi lần ping truyền tới trang web một tệp 65kb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,16 +1574,152 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -235,11 +1727,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB5B5B5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB5B5B5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB5B5B5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB5B5B5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -248,9 +1798,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8022,7 +9668,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="16384" width="8.90625" style="1"/>
   </cols>
@@ -8040,7 +9686,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="97.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.90625" style="1"/>
@@ -8056,8 +9702,8 @@
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="29.4" customHeight="1"/>
+    <row r="3" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -8089,7 +9735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="130.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="130.75" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -8097,7 +9743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="130.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="130.25" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -8105,7 +9751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="128.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="128.4" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
@@ -8113,7 +9759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="138.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="138.65" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -8121,7 +9767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="409.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="409.25" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
@@ -8129,7 +9775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="246" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="246" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -8137,7 +9783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="196.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="196.75" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -8145,7 +9791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -8156,7 +9802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
@@ -8167,7 +9813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="239.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="239.4" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
@@ -8189,11 +9835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="97.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.90625" style="1"/>
@@ -8209,8 +9855,8 @@
     <col min="12" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="29.4" customHeight="1"/>
+    <row r="3" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -8242,7 +9888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="130.5" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
@@ -8250,7 +9896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="130" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -8258,7 +9904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="128" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="128" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
@@ -8266,7 +9912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="33" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
@@ -8274,7 +9920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="57.5" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
@@ -8282,7 +9928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="52" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
@@ -8290,7 +9936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="56" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -8298,7 +9944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="125.5" customHeight="1">
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -8307,7 +9953,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:11" ht="134" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="134" customHeight="1">
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
@@ -8316,7 +9962,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:11" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="39.5" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
@@ -8327,7 +9973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="48" customHeight="1">
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
@@ -8335,7 +9981,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="64" customHeight="1">
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
@@ -8343,7 +9989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="53.5" customHeight="1">
       <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
@@ -8351,7 +9997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" ht="64" customHeight="1">
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
@@ -8359,7 +10005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" ht="64.5" customHeight="1">
       <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
@@ -8367,7 +10013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" ht="61" customHeight="1">
       <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
@@ -8375,7 +10021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" ht="62.5" customHeight="1">
       <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
@@ -8383,7 +10029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" ht="91" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
@@ -8391,7 +10037,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="98" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" ht="98" customHeight="1">
       <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
@@ -8399,12 +10045,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="126" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" ht="126" customHeight="1">
       <c r="B46" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:3" ht="115.5" customHeight="1">
       <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
@@ -8412,7 +10058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" ht="153" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="153" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8421,12 +10067,3108 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J122"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.1796875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="256" width="9" style="9"/>
+    <col min="257" max="257" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="31.453125" style="9" customWidth="1"/>
+    <col min="259" max="259" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="62.1796875" style="9" customWidth="1"/>
+    <col min="262" max="262" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="16.81640625" style="9" customWidth="1"/>
+    <col min="264" max="264" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="267" max="512" width="9" style="9"/>
+    <col min="513" max="513" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="31.453125" style="9" customWidth="1"/>
+    <col min="515" max="515" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="62.1796875" style="9" customWidth="1"/>
+    <col min="518" max="518" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="16.81640625" style="9" customWidth="1"/>
+    <col min="520" max="520" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="523" max="768" width="9" style="9"/>
+    <col min="769" max="769" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="31.453125" style="9" customWidth="1"/>
+    <col min="771" max="771" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="62.1796875" style="9" customWidth="1"/>
+    <col min="774" max="774" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="16.81640625" style="9" customWidth="1"/>
+    <col min="776" max="776" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="779" max="1024" width="9" style="9"/>
+    <col min="1025" max="1025" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="31.453125" style="9" customWidth="1"/>
+    <col min="1027" max="1027" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="62.1796875" style="9" customWidth="1"/>
+    <col min="1030" max="1030" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="16.81640625" style="9" customWidth="1"/>
+    <col min="1032" max="1032" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1280" width="9" style="9"/>
+    <col min="1281" max="1281" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="31.453125" style="9" customWidth="1"/>
+    <col min="1283" max="1283" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="62.1796875" style="9" customWidth="1"/>
+    <col min="1286" max="1286" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="16.81640625" style="9" customWidth="1"/>
+    <col min="1288" max="1288" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1536" width="9" style="9"/>
+    <col min="1537" max="1537" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="31.453125" style="9" customWidth="1"/>
+    <col min="1539" max="1539" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="62.1796875" style="9" customWidth="1"/>
+    <col min="1542" max="1542" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="16.81640625" style="9" customWidth="1"/>
+    <col min="1544" max="1544" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1792" width="9" style="9"/>
+    <col min="1793" max="1793" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="31.453125" style="9" customWidth="1"/>
+    <col min="1795" max="1795" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="62.1796875" style="9" customWidth="1"/>
+    <col min="1798" max="1798" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="16.81640625" style="9" customWidth="1"/>
+    <col min="1800" max="1800" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1803" max="2048" width="9" style="9"/>
+    <col min="2049" max="2049" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="31.453125" style="9" customWidth="1"/>
+    <col min="2051" max="2051" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="62.1796875" style="9" customWidth="1"/>
+    <col min="2054" max="2054" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="16.81640625" style="9" customWidth="1"/>
+    <col min="2056" max="2056" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2304" width="9" style="9"/>
+    <col min="2305" max="2305" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="31.453125" style="9" customWidth="1"/>
+    <col min="2307" max="2307" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="62.1796875" style="9" customWidth="1"/>
+    <col min="2310" max="2310" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="16.81640625" style="9" customWidth="1"/>
+    <col min="2312" max="2312" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2560" width="9" style="9"/>
+    <col min="2561" max="2561" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="31.453125" style="9" customWidth="1"/>
+    <col min="2563" max="2563" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="62.1796875" style="9" customWidth="1"/>
+    <col min="2566" max="2566" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="16.81640625" style="9" customWidth="1"/>
+    <col min="2568" max="2568" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2816" width="9" style="9"/>
+    <col min="2817" max="2817" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="31.453125" style="9" customWidth="1"/>
+    <col min="2819" max="2819" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="62.1796875" style="9" customWidth="1"/>
+    <col min="2822" max="2822" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="16.81640625" style="9" customWidth="1"/>
+    <col min="2824" max="2824" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2827" max="3072" width="9" style="9"/>
+    <col min="3073" max="3073" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="31.453125" style="9" customWidth="1"/>
+    <col min="3075" max="3075" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="62.1796875" style="9" customWidth="1"/>
+    <col min="3078" max="3078" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="16.81640625" style="9" customWidth="1"/>
+    <col min="3080" max="3080" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3328" width="9" style="9"/>
+    <col min="3329" max="3329" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="31.453125" style="9" customWidth="1"/>
+    <col min="3331" max="3331" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="62.1796875" style="9" customWidth="1"/>
+    <col min="3334" max="3334" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="16.81640625" style="9" customWidth="1"/>
+    <col min="3336" max="3336" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3584" width="9" style="9"/>
+    <col min="3585" max="3585" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="31.453125" style="9" customWidth="1"/>
+    <col min="3587" max="3587" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="62.1796875" style="9" customWidth="1"/>
+    <col min="3590" max="3590" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="16.81640625" style="9" customWidth="1"/>
+    <col min="3592" max="3592" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3840" width="9" style="9"/>
+    <col min="3841" max="3841" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="31.453125" style="9" customWidth="1"/>
+    <col min="3843" max="3843" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="62.1796875" style="9" customWidth="1"/>
+    <col min="3846" max="3846" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="16.81640625" style="9" customWidth="1"/>
+    <col min="3848" max="3848" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3851" max="4096" width="9" style="9"/>
+    <col min="4097" max="4097" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="31.453125" style="9" customWidth="1"/>
+    <col min="4099" max="4099" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="62.1796875" style="9" customWidth="1"/>
+    <col min="4102" max="4102" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="16.81640625" style="9" customWidth="1"/>
+    <col min="4104" max="4104" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4352" width="9" style="9"/>
+    <col min="4353" max="4353" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="31.453125" style="9" customWidth="1"/>
+    <col min="4355" max="4355" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="62.1796875" style="9" customWidth="1"/>
+    <col min="4358" max="4358" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="16.81640625" style="9" customWidth="1"/>
+    <col min="4360" max="4360" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4608" width="9" style="9"/>
+    <col min="4609" max="4609" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="31.453125" style="9" customWidth="1"/>
+    <col min="4611" max="4611" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="62.1796875" style="9" customWidth="1"/>
+    <col min="4614" max="4614" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="16.81640625" style="9" customWidth="1"/>
+    <col min="4616" max="4616" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4864" width="9" style="9"/>
+    <col min="4865" max="4865" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="31.453125" style="9" customWidth="1"/>
+    <col min="4867" max="4867" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="62.1796875" style="9" customWidth="1"/>
+    <col min="4870" max="4870" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="16.81640625" style="9" customWidth="1"/>
+    <col min="4872" max="4872" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4875" max="5120" width="9" style="9"/>
+    <col min="5121" max="5121" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="31.453125" style="9" customWidth="1"/>
+    <col min="5123" max="5123" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="62.1796875" style="9" customWidth="1"/>
+    <col min="5126" max="5126" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="16.81640625" style="9" customWidth="1"/>
+    <col min="5128" max="5128" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5376" width="9" style="9"/>
+    <col min="5377" max="5377" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="31.453125" style="9" customWidth="1"/>
+    <col min="5379" max="5379" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="62.1796875" style="9" customWidth="1"/>
+    <col min="5382" max="5382" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="16.81640625" style="9" customWidth="1"/>
+    <col min="5384" max="5384" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5632" width="9" style="9"/>
+    <col min="5633" max="5633" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="31.453125" style="9" customWidth="1"/>
+    <col min="5635" max="5635" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="62.1796875" style="9" customWidth="1"/>
+    <col min="5638" max="5638" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="16.81640625" style="9" customWidth="1"/>
+    <col min="5640" max="5640" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5888" width="9" style="9"/>
+    <col min="5889" max="5889" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="31.453125" style="9" customWidth="1"/>
+    <col min="5891" max="5891" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="62.1796875" style="9" customWidth="1"/>
+    <col min="5894" max="5894" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="16.81640625" style="9" customWidth="1"/>
+    <col min="5896" max="5896" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5899" max="6144" width="9" style="9"/>
+    <col min="6145" max="6145" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="31.453125" style="9" customWidth="1"/>
+    <col min="6147" max="6147" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="62.1796875" style="9" customWidth="1"/>
+    <col min="6150" max="6150" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="16.81640625" style="9" customWidth="1"/>
+    <col min="6152" max="6152" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6400" width="9" style="9"/>
+    <col min="6401" max="6401" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="31.453125" style="9" customWidth="1"/>
+    <col min="6403" max="6403" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="62.1796875" style="9" customWidth="1"/>
+    <col min="6406" max="6406" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="16.81640625" style="9" customWidth="1"/>
+    <col min="6408" max="6408" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6656" width="9" style="9"/>
+    <col min="6657" max="6657" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="31.453125" style="9" customWidth="1"/>
+    <col min="6659" max="6659" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="62.1796875" style="9" customWidth="1"/>
+    <col min="6662" max="6662" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="16.81640625" style="9" customWidth="1"/>
+    <col min="6664" max="6664" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6912" width="9" style="9"/>
+    <col min="6913" max="6913" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="31.453125" style="9" customWidth="1"/>
+    <col min="6915" max="6915" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="62.1796875" style="9" customWidth="1"/>
+    <col min="6918" max="6918" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="16.81640625" style="9" customWidth="1"/>
+    <col min="6920" max="6920" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6923" max="7168" width="9" style="9"/>
+    <col min="7169" max="7169" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="31.453125" style="9" customWidth="1"/>
+    <col min="7171" max="7171" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="62.1796875" style="9" customWidth="1"/>
+    <col min="7174" max="7174" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="16.81640625" style="9" customWidth="1"/>
+    <col min="7176" max="7176" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7424" width="9" style="9"/>
+    <col min="7425" max="7425" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="31.453125" style="9" customWidth="1"/>
+    <col min="7427" max="7427" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="62.1796875" style="9" customWidth="1"/>
+    <col min="7430" max="7430" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="16.81640625" style="9" customWidth="1"/>
+    <col min="7432" max="7432" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7680" width="9" style="9"/>
+    <col min="7681" max="7681" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="31.453125" style="9" customWidth="1"/>
+    <col min="7683" max="7683" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="62.1796875" style="9" customWidth="1"/>
+    <col min="7686" max="7686" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="16.81640625" style="9" customWidth="1"/>
+    <col min="7688" max="7688" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7936" width="9" style="9"/>
+    <col min="7937" max="7937" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="31.453125" style="9" customWidth="1"/>
+    <col min="7939" max="7939" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="62.1796875" style="9" customWidth="1"/>
+    <col min="7942" max="7942" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="16.81640625" style="9" customWidth="1"/>
+    <col min="7944" max="7944" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7947" max="8192" width="9" style="9"/>
+    <col min="8193" max="8193" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="31.453125" style="9" customWidth="1"/>
+    <col min="8195" max="8195" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="62.1796875" style="9" customWidth="1"/>
+    <col min="8198" max="8198" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="16.81640625" style="9" customWidth="1"/>
+    <col min="8200" max="8200" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8448" width="9" style="9"/>
+    <col min="8449" max="8449" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="31.453125" style="9" customWidth="1"/>
+    <col min="8451" max="8451" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="62.1796875" style="9" customWidth="1"/>
+    <col min="8454" max="8454" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="16.81640625" style="9" customWidth="1"/>
+    <col min="8456" max="8456" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8704" width="9" style="9"/>
+    <col min="8705" max="8705" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="31.453125" style="9" customWidth="1"/>
+    <col min="8707" max="8707" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="62.1796875" style="9" customWidth="1"/>
+    <col min="8710" max="8710" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="16.81640625" style="9" customWidth="1"/>
+    <col min="8712" max="8712" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8960" width="9" style="9"/>
+    <col min="8961" max="8961" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="31.453125" style="9" customWidth="1"/>
+    <col min="8963" max="8963" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="62.1796875" style="9" customWidth="1"/>
+    <col min="8966" max="8966" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="16.81640625" style="9" customWidth="1"/>
+    <col min="8968" max="8968" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8971" max="9216" width="9" style="9"/>
+    <col min="9217" max="9217" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="31.453125" style="9" customWidth="1"/>
+    <col min="9219" max="9219" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="62.1796875" style="9" customWidth="1"/>
+    <col min="9222" max="9222" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="16.81640625" style="9" customWidth="1"/>
+    <col min="9224" max="9224" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9472" width="9" style="9"/>
+    <col min="9473" max="9473" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="31.453125" style="9" customWidth="1"/>
+    <col min="9475" max="9475" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="62.1796875" style="9" customWidth="1"/>
+    <col min="9478" max="9478" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="16.81640625" style="9" customWidth="1"/>
+    <col min="9480" max="9480" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9728" width="9" style="9"/>
+    <col min="9729" max="9729" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="31.453125" style="9" customWidth="1"/>
+    <col min="9731" max="9731" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="62.1796875" style="9" customWidth="1"/>
+    <col min="9734" max="9734" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="16.81640625" style="9" customWidth="1"/>
+    <col min="9736" max="9736" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9984" width="9" style="9"/>
+    <col min="9985" max="9985" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="31.453125" style="9" customWidth="1"/>
+    <col min="9987" max="9987" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="62.1796875" style="9" customWidth="1"/>
+    <col min="9990" max="9990" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="16.81640625" style="9" customWidth="1"/>
+    <col min="9992" max="9992" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9995" max="10240" width="9" style="9"/>
+    <col min="10241" max="10241" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="31.453125" style="9" customWidth="1"/>
+    <col min="10243" max="10243" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="62.1796875" style="9" customWidth="1"/>
+    <col min="10246" max="10246" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="16.81640625" style="9" customWidth="1"/>
+    <col min="10248" max="10248" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10496" width="9" style="9"/>
+    <col min="10497" max="10497" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="31.453125" style="9" customWidth="1"/>
+    <col min="10499" max="10499" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="62.1796875" style="9" customWidth="1"/>
+    <col min="10502" max="10502" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="16.81640625" style="9" customWidth="1"/>
+    <col min="10504" max="10504" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10752" width="9" style="9"/>
+    <col min="10753" max="10753" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="31.453125" style="9" customWidth="1"/>
+    <col min="10755" max="10755" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="62.1796875" style="9" customWidth="1"/>
+    <col min="10758" max="10758" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="16.81640625" style="9" customWidth="1"/>
+    <col min="10760" max="10760" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10763" max="11008" width="9" style="9"/>
+    <col min="11009" max="11009" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="31.453125" style="9" customWidth="1"/>
+    <col min="11011" max="11011" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="62.1796875" style="9" customWidth="1"/>
+    <col min="11014" max="11014" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="16.81640625" style="9" customWidth="1"/>
+    <col min="11016" max="11016" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11264" width="9" style="9"/>
+    <col min="11265" max="11265" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="31.453125" style="9" customWidth="1"/>
+    <col min="11267" max="11267" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="62.1796875" style="9" customWidth="1"/>
+    <col min="11270" max="11270" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="16.81640625" style="9" customWidth="1"/>
+    <col min="11272" max="11272" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11520" width="9" style="9"/>
+    <col min="11521" max="11521" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="31.453125" style="9" customWidth="1"/>
+    <col min="11523" max="11523" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="62.1796875" style="9" customWidth="1"/>
+    <col min="11526" max="11526" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="16.81640625" style="9" customWidth="1"/>
+    <col min="11528" max="11528" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11776" width="9" style="9"/>
+    <col min="11777" max="11777" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="31.453125" style="9" customWidth="1"/>
+    <col min="11779" max="11779" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="62.1796875" style="9" customWidth="1"/>
+    <col min="11782" max="11782" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="16.81640625" style="9" customWidth="1"/>
+    <col min="11784" max="11784" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11787" max="12032" width="9" style="9"/>
+    <col min="12033" max="12033" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="31.453125" style="9" customWidth="1"/>
+    <col min="12035" max="12035" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="62.1796875" style="9" customWidth="1"/>
+    <col min="12038" max="12038" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="16.81640625" style="9" customWidth="1"/>
+    <col min="12040" max="12040" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12288" width="9" style="9"/>
+    <col min="12289" max="12289" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="31.453125" style="9" customWidth="1"/>
+    <col min="12291" max="12291" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="62.1796875" style="9" customWidth="1"/>
+    <col min="12294" max="12294" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="16.81640625" style="9" customWidth="1"/>
+    <col min="12296" max="12296" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12544" width="9" style="9"/>
+    <col min="12545" max="12545" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="31.453125" style="9" customWidth="1"/>
+    <col min="12547" max="12547" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="62.1796875" style="9" customWidth="1"/>
+    <col min="12550" max="12550" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="16.81640625" style="9" customWidth="1"/>
+    <col min="12552" max="12552" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12800" width="9" style="9"/>
+    <col min="12801" max="12801" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="31.453125" style="9" customWidth="1"/>
+    <col min="12803" max="12803" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="62.1796875" style="9" customWidth="1"/>
+    <col min="12806" max="12806" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="16.81640625" style="9" customWidth="1"/>
+    <col min="12808" max="12808" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12811" max="13056" width="9" style="9"/>
+    <col min="13057" max="13057" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="31.453125" style="9" customWidth="1"/>
+    <col min="13059" max="13059" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="62.1796875" style="9" customWidth="1"/>
+    <col min="13062" max="13062" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="16.81640625" style="9" customWidth="1"/>
+    <col min="13064" max="13064" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13312" width="9" style="9"/>
+    <col min="13313" max="13313" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="31.453125" style="9" customWidth="1"/>
+    <col min="13315" max="13315" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="62.1796875" style="9" customWidth="1"/>
+    <col min="13318" max="13318" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="16.81640625" style="9" customWidth="1"/>
+    <col min="13320" max="13320" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13568" width="9" style="9"/>
+    <col min="13569" max="13569" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="31.453125" style="9" customWidth="1"/>
+    <col min="13571" max="13571" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="62.1796875" style="9" customWidth="1"/>
+    <col min="13574" max="13574" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="16.81640625" style="9" customWidth="1"/>
+    <col min="13576" max="13576" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13824" width="9" style="9"/>
+    <col min="13825" max="13825" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="31.453125" style="9" customWidth="1"/>
+    <col min="13827" max="13827" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="62.1796875" style="9" customWidth="1"/>
+    <col min="13830" max="13830" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="16.81640625" style="9" customWidth="1"/>
+    <col min="13832" max="13832" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13835" max="14080" width="9" style="9"/>
+    <col min="14081" max="14081" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="31.453125" style="9" customWidth="1"/>
+    <col min="14083" max="14083" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="62.1796875" style="9" customWidth="1"/>
+    <col min="14086" max="14086" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="16.81640625" style="9" customWidth="1"/>
+    <col min="14088" max="14088" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14336" width="9" style="9"/>
+    <col min="14337" max="14337" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="31.453125" style="9" customWidth="1"/>
+    <col min="14339" max="14339" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="62.1796875" style="9" customWidth="1"/>
+    <col min="14342" max="14342" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="16.81640625" style="9" customWidth="1"/>
+    <col min="14344" max="14344" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14592" width="9" style="9"/>
+    <col min="14593" max="14593" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="31.453125" style="9" customWidth="1"/>
+    <col min="14595" max="14595" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="62.1796875" style="9" customWidth="1"/>
+    <col min="14598" max="14598" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="16.81640625" style="9" customWidth="1"/>
+    <col min="14600" max="14600" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14848" width="9" style="9"/>
+    <col min="14849" max="14849" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="31.453125" style="9" customWidth="1"/>
+    <col min="14851" max="14851" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="62.1796875" style="9" customWidth="1"/>
+    <col min="14854" max="14854" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="16.81640625" style="9" customWidth="1"/>
+    <col min="14856" max="14856" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14859" max="15104" width="9" style="9"/>
+    <col min="15105" max="15105" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="31.453125" style="9" customWidth="1"/>
+    <col min="15107" max="15107" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="62.1796875" style="9" customWidth="1"/>
+    <col min="15110" max="15110" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="16.81640625" style="9" customWidth="1"/>
+    <col min="15112" max="15112" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15360" width="9" style="9"/>
+    <col min="15361" max="15361" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="31.453125" style="9" customWidth="1"/>
+    <col min="15363" max="15363" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="62.1796875" style="9" customWidth="1"/>
+    <col min="15366" max="15366" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="16.81640625" style="9" customWidth="1"/>
+    <col min="15368" max="15368" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15616" width="9" style="9"/>
+    <col min="15617" max="15617" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="31.453125" style="9" customWidth="1"/>
+    <col min="15619" max="15619" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="62.1796875" style="9" customWidth="1"/>
+    <col min="15622" max="15622" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="16.81640625" style="9" customWidth="1"/>
+    <col min="15624" max="15624" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15872" width="9" style="9"/>
+    <col min="15873" max="15873" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="31.453125" style="9" customWidth="1"/>
+    <col min="15875" max="15875" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="62.1796875" style="9" customWidth="1"/>
+    <col min="15878" max="15878" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="16.81640625" style="9" customWidth="1"/>
+    <col min="15880" max="15880" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15883" max="16128" width="9" style="9"/>
+    <col min="16129" max="16129" width="34.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="31.453125" style="9" customWidth="1"/>
+    <col min="16131" max="16131" width="79.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="62.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="62.1796875" style="9" customWidth="1"/>
+    <col min="16134" max="16134" width="39" style="9" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="16.81640625" style="9" customWidth="1"/>
+    <col min="16136" max="16136" width="27.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="179.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="31.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="23.5">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="108.5">
+      <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="124">
+      <c r="A4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="46.5">
+      <c r="A5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="46.5">
+      <c r="A6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="46.5">
+      <c r="A7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="31">
+      <c r="A8" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="62">
+      <c r="A9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="77.5">
+      <c r="A10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="31">
+      <c r="A11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="62">
+      <c r="A12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="77.5">
+      <c r="A13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="77.5">
+      <c r="A14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="77.5">
+      <c r="A15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="77.5">
+      <c r="A16" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="77.5">
+      <c r="A17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="93">
+      <c r="A18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="108.5">
+      <c r="A19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="31">
+      <c r="A20" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="46.5">
+      <c r="A21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="46.5">
+      <c r="A22" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="46.5">
+      <c r="A23" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="77.5">
+      <c r="A24" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="62">
+      <c r="A25" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="62">
+      <c r="A26" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="62">
+      <c r="A27" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="62">
+      <c r="A28" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="93">
+      <c r="A29" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="77.5">
+      <c r="A30" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="62">
+      <c r="A31" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="62">
+      <c r="A32" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="62">
+      <c r="A33" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="77.5">
+      <c r="A34" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="46.5">
+      <c r="A35" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="77.5">
+      <c r="A36" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="62">
+      <c r="A37" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="93">
+      <c r="A38" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="46.5">
+      <c r="A39" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="46.5">
+      <c r="A40" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="46.5">
+      <c r="A41" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="46.5">
+      <c r="A42" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="46.5">
+      <c r="A43" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="46.5">
+      <c r="A44" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="46.5">
+      <c r="A45" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="46.5">
+      <c r="A46" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="31">
+      <c r="A47" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="46.5">
+      <c r="A48" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="46.5">
+      <c r="A49" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="46.5">
+      <c r="A50" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="46.5">
+      <c r="A51" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="46.5">
+      <c r="A52" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="46.5">
+      <c r="A53" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="46.5">
+      <c r="A54" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="46.5">
+      <c r="A55" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="31">
+      <c r="A56" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+    </row>
+    <row r="57" spans="1:10" ht="46.5">
+      <c r="A57" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="31">
+      <c r="A58" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+    </row>
+    <row r="59" spans="1:10" ht="31">
+      <c r="A59" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+    </row>
+    <row r="60" spans="1:10" ht="31">
+      <c r="A60" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+    </row>
+    <row r="61" spans="1:10" ht="46.5">
+      <c r="A61" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="46.5">
+      <c r="A62" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="46.5">
+      <c r="A63" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="31">
+      <c r="A64" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="31">
+      <c r="A65" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="46.5">
+      <c r="A66" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="46.5">
+      <c r="A67" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="46.5">
+      <c r="A68" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="46.5">
+      <c r="A69" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="46.5">
+      <c r="A70" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="31">
+      <c r="A71" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+    </row>
+    <row r="72" spans="1:10" ht="46.5">
+      <c r="A72" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="46.5">
+      <c r="A73" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.5">
+      <c r="A74" s="22"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.5">
+      <c r="A75" s="22"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.5">
+      <c r="A76" s="22"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.5">
+      <c r="A77" s="22"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.5">
+      <c r="A78" s="22"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.5">
+      <c r="A79" s="22"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+    </row>
+    <row r="80" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A80" s="28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="17" thickBot="1">
+      <c r="A81" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82" spans="1:2" ht="17" thickBot="1">
+      <c r="A82" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83" spans="1:2" ht="17" thickBot="1">
+      <c r="A83" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="1:2" ht="17" thickBot="1">
+      <c r="A84" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85" spans="1:2" ht="17" thickBot="1">
+      <c r="A85" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86" spans="1:2" ht="17" thickBot="1">
+      <c r="A86" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87" spans="1:2" ht="17" thickBot="1">
+      <c r="A87" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="1:2" ht="17" thickBot="1">
+      <c r="A88" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="B88" s="9"/>
+    </row>
+    <row r="89" spans="1:2" ht="17" thickBot="1">
+      <c r="A89" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="1:2" ht="17" thickBot="1">
+      <c r="A90" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="B90" s="9"/>
+    </row>
+    <row r="91" spans="1:2" ht="17" thickBot="1">
+      <c r="A91" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B91" s="9"/>
+    </row>
+    <row r="92" spans="1:2" ht="17" thickBot="1">
+      <c r="A92" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="1:2" ht="17" thickBot="1">
+      <c r="A93" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94" spans="1:2" ht="17" thickBot="1">
+      <c r="A94" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="1:2" ht="17" thickBot="1">
+      <c r="A95" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96" spans="1:2" ht="17" thickBot="1">
+      <c r="A96" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" spans="1:2" ht="17" thickBot="1">
+      <c r="A97" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" spans="1:2" ht="17" thickBot="1">
+      <c r="A98" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99" spans="1:2" ht="17" thickBot="1">
+      <c r="A99" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="B99" s="9"/>
+    </row>
+    <row r="100" spans="1:2" ht="17" thickBot="1">
+      <c r="A100" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="B100" s="9"/>
+    </row>
+    <row r="101" spans="1:2" ht="17" thickBot="1">
+      <c r="A101" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="1:2" ht="17" thickBot="1">
+      <c r="A102" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="B102" s="9"/>
+    </row>
+    <row r="103" spans="1:2" ht="17" thickBot="1">
+      <c r="A103" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104" spans="1:2" ht="17" thickBot="1">
+      <c r="A104" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105" spans="1:2" ht="17" thickBot="1">
+      <c r="A105" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="B105" s="9"/>
+    </row>
+    <row r="106" spans="1:2" ht="17" thickBot="1">
+      <c r="A106" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="B106" s="9"/>
+    </row>
+    <row r="107" spans="1:2" ht="17" thickBot="1">
+      <c r="A107" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="B107" s="9"/>
+    </row>
+    <row r="108" spans="1:2" ht="17" thickBot="1">
+      <c r="A108" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="1:2" ht="17" thickBot="1">
+      <c r="A109" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="B109" s="9"/>
+    </row>
+    <row r="110" spans="1:2" ht="17" thickBot="1">
+      <c r="A110" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111" spans="1:2" ht="17" thickBot="1">
+      <c r="A111" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="B111" s="9"/>
+    </row>
+    <row r="113" spans="1:1" ht="26">
+      <c r="A113" s="32" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="23.5">
+      <c r="A114" s="33" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="23.5">
+      <c r="A115" s="33" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="23.5">
+      <c r="A116" s="33" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="23.5">
+      <c r="A117" s="34"/>
+    </row>
+    <row r="118" spans="1:1" ht="26">
+      <c r="A118" s="32" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="26">
+      <c r="A119" s="35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="26">
+      <c r="A122" s="32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>